--- a/ServiceAreaClient/Docs/设备参数记录.xlsx
+++ b/ServiceAreaClient/Docs/设备参数记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="古城子" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="126">
   <si>
     <t>北区总表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西区餐厅照明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西区餐厅动力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,10 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总电表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西区餐厅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,6 +439,86 @@
   </si>
   <si>
     <t>北区室外洗手池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.62.66.220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.62.66.221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.62.66.222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.62.66.223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.62.66.224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.62.66.225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西区牛肉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西区室内温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西区客流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西区电表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西区水表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东区室内温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东区客流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东区锅炉温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东区电表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东区水表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.62.66.226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.62.66.227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.62.66.228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.62.66.229</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,41 +1029,41 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="H12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="J12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -999,30 +1071,30 @@
         <v>38400</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1030,30 +1102,30 @@
         <v>38400</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1061,30 +1133,30 @@
         <v>38400</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1092,30 +1164,30 @@
         <v>38400</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1123,30 +1195,30 @@
         <v>38400</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1154,31 +1226,31 @@
         <v>38400</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
@@ -1187,7 +1259,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
@@ -1196,7 +1268,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
@@ -1205,7 +1277,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
@@ -1215,15 +1287,15 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B27" s="4">
         <v>9</v>
@@ -1234,7 +1306,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B28" s="4">
         <v>10</v>
@@ -1245,7 +1317,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B29" s="4">
         <v>11</v>
@@ -1256,7 +1328,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B30" s="4">
         <v>12</v>
@@ -1292,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1326,7 +1398,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1342,7 +1414,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>19</v>
@@ -1355,7 +1427,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -1366,15 +1438,15 @@
         <v>9600</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>21</v>
@@ -1384,10 +1456,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>22</v>
@@ -1397,10 +1469,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>23</v>
@@ -1410,10 +1482,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>24</v>
@@ -1424,41 +1496,41 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="H13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1466,30 +1538,30 @@
         <v>38400</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1497,30 +1569,30 @@
         <v>38400</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1528,30 +1600,30 @@
         <v>38400</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1559,30 +1631,30 @@
         <v>38400</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1590,30 +1662,30 @@
         <v>38400</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1621,31 +1693,31 @@
         <v>38400</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
@@ -1655,12 +1727,12 @@
         <v>4800</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
@@ -1671,196 +1743,219 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
         <v>1</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F27">
         <v>9600</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
         <v>2</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="4">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="4">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
         <v>5</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
         <v>6</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
         <v>7</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
         <v>8</v>
       </c>
       <c r="D34" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B37">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B39">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D39" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B41">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D41" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B43">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B45">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D45" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B47">
         <v>26</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -1905,7 +2000,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1921,7 +2016,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>31</v>
@@ -1934,7 +2029,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>28</v>
@@ -1945,15 +2040,15 @@
         <v>9600</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>29</v>
@@ -1963,10 +2058,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>30</v>
@@ -1976,10 +2071,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>26</v>
@@ -1989,10 +2084,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>27</v>
@@ -2003,41 +2098,41 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="H13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2045,30 +2140,30 @@
         <v>38400</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2076,30 +2171,30 @@
         <v>38400</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2107,30 +2202,30 @@
         <v>38400</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2138,30 +2233,30 @@
         <v>38400</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2169,30 +2264,30 @@
         <v>38400</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2200,31 +2295,31 @@
         <v>38400</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
@@ -2234,12 +2329,12 @@
         <v>4800</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
@@ -2250,15 +2345,15 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -2271,12 +2366,12 @@
         <v>9600</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -2288,7 +2383,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -2300,7 +2395,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -2312,7 +2407,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -2324,7 +2419,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -2336,7 +2431,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -2348,7 +2443,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -2358,20 +2453,20 @@
         <v>0.1</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>26</v>
@@ -2379,12 +2474,12 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>26</v>
@@ -2392,12 +2487,12 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>26</v>
@@ -2405,12 +2500,12 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>26</v>
@@ -2418,12 +2513,12 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>26</v>
@@ -2431,12 +2526,12 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>26</v>
@@ -2484,7 +2579,7 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1">
         <v>32</v>
@@ -2495,7 +2590,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>33</v>
@@ -2506,7 +2601,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1">
         <v>34</v>
@@ -2517,13 +2612,13 @@
         <v>9600</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1">
         <v>35</v>
@@ -2534,7 +2629,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1">
         <v>36</v>
@@ -2545,7 +2640,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1">
         <v>37</v>
@@ -2556,7 +2651,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1">
         <v>38</v>
@@ -2567,41 +2662,41 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="H13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2609,30 +2704,30 @@
         <v>38400</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2640,30 +2735,30 @@
         <v>38400</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2671,30 +2766,30 @@
         <v>38400</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2702,30 +2797,30 @@
         <v>38400</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2733,30 +2828,30 @@
         <v>38400</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2764,31 +2859,31 @@
         <v>38400</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
@@ -2798,12 +2893,12 @@
         <v>4800</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
@@ -2814,15 +2909,15 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -2835,12 +2930,12 @@
         <v>9600</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -2852,7 +2947,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -2864,7 +2959,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -2876,7 +2971,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -2888,7 +2983,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -2900,7 +2995,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -2912,7 +3007,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -2922,20 +3017,20 @@
         <v>0.1</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>26</v>
@@ -2943,12 +3038,12 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>26</v>
@@ -2956,12 +3051,12 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>26</v>
@@ -2969,12 +3064,12 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>26</v>
@@ -2982,12 +3077,12 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>26</v>
@@ -2995,12 +3090,12 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>26</v>
